--- a/CourseProposal/json_output/course_dataframe.xlsx
+++ b/CourseProposal/json_output/course_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>LU#</t>
   </si>
@@ -52,25 +52,19 @@
     <t>LU5</t>
   </si>
   <si>
-    <t>LU6</t>
-  </si>
-  <si>
-    <t>Git and GitHub Fundamentals</t>
-  </si>
-  <si>
-    <t>GitHub Repository Management</t>
-  </si>
-  <si>
-    <t>Collaborative Workflows on GitHub</t>
-  </si>
-  <si>
-    <t>Modern Development Practices</t>
-  </si>
-  <si>
-    <t>GitHub Project Management</t>
-  </si>
-  <si>
-    <t>GitHub Security and Administration</t>
+    <t>Container Management</t>
+  </si>
+  <si>
+    <t>Deployment Strategies</t>
+  </si>
+  <si>
+    <t>Application Monitoring</t>
+  </si>
+  <si>
+    <t>Security and Configuration</t>
+  </si>
+  <si>
+    <t>Networking Fundamentals</t>
   </si>
   <si>
     <t>LO1</t>
@@ -88,88 +82,79 @@
     <t>LO5</t>
   </si>
   <si>
-    <t>LO6</t>
-  </si>
-  <si>
-    <t>Analyze Github components and coordinate release scheduling with collaborators to align processes.</t>
-  </si>
-  <si>
-    <t>Select appropriate Git scripts for integrating and deploying software products.</t>
-  </si>
-  <si>
-    <t>Configure software products and deploy releases using Git configuration tests.</t>
-  </si>
-  <si>
-    <t>Diagnose issues identified during Github configuration testing by interpreting configuration test results.</t>
-  </si>
-  <si>
-    <t>Identify potential improvements to the software configuration, deployment processes, and code elements.</t>
-  </si>
-  <si>
-    <t>Implement modifications to software products and processes for improved functionality.</t>
-  </si>
-  <si>
-    <t>T1: Introduction to Git and GitHub</t>
-  </si>
-  <si>
-    <t>T2: Working with GitHub Repository</t>
-  </si>
-  <si>
-    <t>T3: Collaboration Features</t>
-  </si>
-  <si>
-    <t>T4: Modern Development</t>
-  </si>
-  <si>
-    <t>T5: GitHub Project</t>
-  </si>
-  <si>
-    <t>T6: Privacy, Security and Administration</t>
-  </si>
-  <si>
-    <t>A1: Analyse release components (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>A2: Coordinate with relevant stakeholders on release scheduling to align release processes and procedures (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>K1: Types and usage of scripts and tools for integrating and deploying software products (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>A3: Select appropriate scripts and tools for integrating and deploying software products (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>K2: Software configuration procedures (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>K3: Configuration tests and their purposes (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>A4: Configure software products to integrate and deploy software releases to various platforms (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>A5: Execute configuration tests on platform specific versions of software products in line with testing procedures (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>K4: Interpretation of configuration test results (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>A6: Diagnose issues surfaced from configuration testing (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>K5: Elements of the software configuration and deployment process (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>A7: Identify potential improvements and modifications to the software configuration and deployment process or the software code (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>A8: Implement modifications to platform-specific software products and processes (ICT-DIT-3014-1.1)</t>
+    <t>Establish high-level structures and frameworks for Kubernetes solutions using appropriate processes and tools.</t>
+  </si>
+  <si>
+    <t>Align technical, functional, and service requirements within Kubernetes-based solution architectures.</t>
+  </si>
+  <si>
+    <t>Coordinate multiple Kubernetes solution components to ensure compatibility and meet design framework goals.</t>
+  </si>
+  <si>
+    <t>Articulate the value of Kubernetes solutions by addressing coding standards, scalability, and reusability.</t>
+  </si>
+  <si>
+    <t>Establish monitoring and testing processes to validate Kubernetes architectures against business requirements.</t>
+  </si>
+  <si>
+    <t>T1: Application Design and Build</t>
+  </si>
+  <si>
+    <t>T2: Application Deployment</t>
+  </si>
+  <si>
+    <t>T3: Application Observability and Maintenance</t>
+  </si>
+  <si>
+    <t>T4: Application Environment, Configuration and Security</t>
+  </si>
+  <si>
+    <t>T5: Services and Networking</t>
+  </si>
+  <si>
+    <t>K1: Process for refining solution architecture (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>K2: Applications of tools and modelling techniques for creation of solution architecture (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>A1: Establish high-level structures and frameworks to guide the development of IT solutions incorporating various processes, hardware and software components (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>A2: Determine relevant design tools or modelling techniques required to develop a solution architecture and blueprint (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>K3: Technical, functional and service considerations (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>A3: Align requirements of various internal and external stakeholders, as well as technical, functional and service requirements within a solution architecture (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>K4: Considerations for multiple aspects of the overall solution including performance, security, latency and other relevant aspects for the solution (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>K6: Compatibility among multiple solution architecture components and design activities (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>A4: Coordinate multiple solution architecture components and design activities, ensuring consistency and compatibility within a target framework (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>K5: Standards for coding, scalability, integration and reusability (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>A5: Articulate value added by the solution to the business needs (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>K7: Techniques to measure a solution's value-add (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>A6: Establish processes to regularly monitor, test and review solution architecture against business requirements (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>Written Exam</t>
   </si>
   <si>
     <t>Practical Exam</t>
-  </si>
-  <si>
-    <t>Written Exam</t>
   </si>
 </sst>
 </file>
@@ -561,22 +546,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -584,114 +569,114 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -699,22 +684,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -722,45 +707,45 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -768,45 +753,45 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -814,45 +799,45 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CourseProposal/json_output/course_dataframe.xlsx
+++ b/CourseProposal/json_output/course_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>LU#</t>
   </si>
@@ -49,22 +49,16 @@
     <t>LU4</t>
   </si>
   <si>
-    <t>LU5</t>
-  </si>
-  <si>
-    <t>Container Management</t>
-  </si>
-  <si>
-    <t>Deployment Strategies</t>
-  </si>
-  <si>
-    <t>Application Monitoring</t>
-  </si>
-  <si>
-    <t>Security and Configuration</t>
-  </si>
-  <si>
-    <t>Networking Fundamentals</t>
+    <t>Client Security Needs Assessment</t>
+  </si>
+  <si>
+    <t>Security Site Performance Analysis</t>
+  </si>
+  <si>
+    <t>Corrective Measures Implementation</t>
+  </si>
+  <si>
+    <t>Security Assessment Reporting</t>
   </si>
   <si>
     <t>LO1</t>
@@ -79,82 +73,64 @@
     <t>LO4</t>
   </si>
   <si>
-    <t>LO5</t>
-  </si>
-  <si>
-    <t>Establish high-level structures and frameworks for Kubernetes solutions using appropriate processes and tools.</t>
-  </si>
-  <si>
-    <t>Align technical, functional, and service requirements within Kubernetes-based solution architectures.</t>
-  </si>
-  <si>
-    <t>Coordinate multiple Kubernetes solution components to ensure compatibility and meet design framework goals.</t>
-  </si>
-  <si>
-    <t>Articulate the value of Kubernetes solutions by addressing coding standards, scalability, and reusability.</t>
-  </si>
-  <si>
-    <t>Establish monitoring and testing processes to validate Kubernetes architectures against business requirements.</t>
-  </si>
-  <si>
-    <t>T1: Application Design and Build</t>
-  </si>
-  <si>
-    <t>T2: Application Deployment</t>
-  </si>
-  <si>
-    <t>T3: Application Observability and Maintenance</t>
-  </si>
-  <si>
-    <t>T4: Application Environment, Configuration and Security</t>
-  </si>
-  <si>
-    <t>T5: Services and Networking</t>
-  </si>
-  <si>
-    <t>K1: Process for refining solution architecture (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>K2: Applications of tools and modelling techniques for creation of solution architecture (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>A1: Establish high-level structures and frameworks to guide the development of IT solutions incorporating various processes, hardware and software components (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>A2: Determine relevant design tools or modelling techniques required to develop a solution architecture and blueprint (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>K3: Technical, functional and service considerations (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>A3: Align requirements of various internal and external stakeholders, as well as technical, functional and service requirements within a solution architecture (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>K4: Considerations for multiple aspects of the overall solution including performance, security, latency and other relevant aspects for the solution (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>K6: Compatibility among multiple solution architecture components and design activities (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>A4: Coordinate multiple solution architecture components and design activities, ensuring consistency and compatibility within a target framework (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>K5: Standards for coding, scalability, integration and reusability (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>A5: Articulate value added by the solution to the business needs (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>K7: Techniques to measure a solution's value-add (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>A6: Establish processes to regularly monitor, test and review solution architecture against business requirements (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>Written Exam</t>
-  </si>
-  <si>
-    <t>Practical Exam</t>
+    <t>Apply basic risk identification techniques to detect tell-tale signs and symptoms of potential security threats.</t>
+  </si>
+  <si>
+    <t>Follow organizational procedures to identify risks by recognizing surveillance, inappropriate behavior, or potential threats.</t>
+  </si>
+  <si>
+    <t>Analyze situations and relate them to prior experiences to identify suspicious activities, attire, or explosive devices.</t>
+  </si>
+  <si>
+    <t>Collaborate with security teams to assess risks using established methods of risk analysis.</t>
+  </si>
+  <si>
+    <t>T1: Assess Clients Security Status</t>
+  </si>
+  <si>
+    <t>T2: Conduct Site Assessment</t>
+  </si>
+  <si>
+    <t>T3: Address Security Deficiencies</t>
+  </si>
+  <si>
+    <t>T4: Submit Findings and Recommendations</t>
+  </si>
+  <si>
+    <t>K2: Types of tell-tale signs and symptoms (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>A1: Apply basic risk identification techniques (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>K3: Organisational procedures for security operations (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>K4: Signs of surveillance and intelligence-gathering being conducted, inappropriate demeanours and potential suicide bombers (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>A2: Follow standard operating procedures (SOPs) to identify risks (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>K5: Types of suspicious activities, inappropriate attire, explosives and incendiary devices used by terrorists (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>K6: Identification of persons (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>A3: Study situations and relate to past experience for identification of risks (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>K1: Methods of risk analysis (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>A4: Discuss situations with security teams to identify risks (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>Oral Questioning</t>
+  </si>
+  <si>
+    <t>Others: Case Study</t>
   </si>
 </sst>
 </file>
@@ -512,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -569,68 +545,68 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -638,45 +614,45 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -684,22 +660,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -707,45 +683,45 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -753,91 +729,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
